--- a/data/Stock.xlsx
+++ b/data/Stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GFT\Projects\Pilar\vs_workspace\repo\pilarcode\sql-agent-lab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B6A70E-5819-4BAA-B535-B7C8482F7235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEDED4F-04AC-4C4F-9E54-C50B04CCAAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{7E66E8AB-2105-4B43-9AAC-CE7C977504F2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7E66E8AB-2105-4B43-9AAC-CE7C977504F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="310">
   <si>
-    <t>SKU ID</t>
-  </si>
-  <si>
     <t>1995AA</t>
   </si>
   <si>
@@ -942,22 +939,25 @@
     <t>3007CA</t>
   </si>
   <si>
-    <t>Unit Price</t>
-  </si>
-  <si>
-    <t>Current Stock Quantity</t>
-  </si>
-  <si>
-    <t>Maximum Lead Time (days)</t>
-  </si>
-  <si>
-    <t>Average Lead Time (days)</t>
-  </si>
-  <si>
-    <t>Units (Nos/Kg)</t>
-  </si>
-  <si>
     <t>Kg</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>avg_lead_time_days</t>
+  </si>
+  <si>
+    <t>maximum_lead_time_days</t>
+  </si>
+  <si>
+    <t>unit_price</t>
+  </si>
+  <si>
+    <t>current_stock_quantity</t>
+  </si>
+  <si>
+    <t>units</t>
   </si>
 </sst>
 </file>
@@ -1320,45 +1320,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330B1228-9313-4FCB-B173-EB9E8910794D}">
   <dimension ref="A1:F304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="5" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="59" customWidth="1"/>
+    <col min="5" max="5" width="39" customWidth="1"/>
+    <col min="6" max="6" width="50.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>306</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2">
         <v>7210</v>
       </c>
       <c r="C2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D2">
         <v>30</v>
@@ -1372,13 +1376,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B3">
         <v>46516</v>
       </c>
       <c r="C3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D3">
         <v>45</v>
@@ -1392,13 +1396,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B4">
         <v>48210</v>
       </c>
       <c r="C4" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D4">
         <v>45</v>
@@ -1412,13 +1416,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B5">
         <v>33398</v>
       </c>
       <c r="C5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D5">
         <v>90</v>
@@ -1432,13 +1436,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6">
         <v>39270</v>
       </c>
       <c r="C6" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D6">
         <v>45</v>
@@ -1452,13 +1456,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7">
         <v>13622</v>
       </c>
       <c r="C7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D7">
         <v>90</v>
@@ -1472,13 +1476,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B8">
         <v>1816</v>
       </c>
       <c r="C8" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D8">
         <v>45</v>
@@ -1492,13 +1496,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B9">
         <v>197</v>
       </c>
       <c r="C9" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D9">
         <v>90</v>
@@ -1512,13 +1516,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10">
         <v>2161</v>
       </c>
       <c r="C10" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D10">
         <v>90</v>
@@ -1532,13 +1536,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>2957</v>
       </c>
       <c r="C11" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D11">
         <v>90</v>
@@ -1552,13 +1556,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B12">
         <v>1253</v>
       </c>
       <c r="C12" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D12">
         <v>90</v>
@@ -1572,13 +1576,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B13">
         <v>786</v>
       </c>
       <c r="C13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D13">
         <v>45</v>
@@ -1592,13 +1596,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14">
         <v>2472</v>
       </c>
       <c r="C14" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D14">
         <v>30</v>
@@ -1612,13 +1616,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B15">
         <v>194</v>
       </c>
       <c r="C15" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D15">
         <v>90</v>
@@ -1632,13 +1636,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16">
         <v>532</v>
       </c>
       <c r="C16" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D16">
         <v>45</v>
@@ -1652,13 +1656,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B17">
         <v>2834</v>
       </c>
       <c r="C17" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D17">
         <v>45</v>
@@ -1672,13 +1676,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18">
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D18">
         <v>60</v>
@@ -1692,13 +1696,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B19">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D19">
         <v>60</v>
@@ -1712,13 +1716,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D20">
         <v>60</v>
@@ -1732,13 +1736,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D21">
         <v>60</v>
@@ -1752,13 +1756,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D22">
         <v>60</v>
@@ -1772,13 +1776,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B23">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D23">
         <v>120</v>
@@ -1792,13 +1796,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B24">
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D24">
         <v>60</v>
@@ -1812,13 +1816,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25">
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D25">
         <v>45</v>
@@ -1832,13 +1836,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26">
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D26">
         <v>90</v>
@@ -1852,13 +1856,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B27">
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D27">
         <v>90</v>
@@ -1872,13 +1876,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B28">
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D28">
         <v>90</v>
@@ -1892,13 +1896,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B29">
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D29">
         <v>90</v>
@@ -1912,13 +1916,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D30">
         <v>45</v>
@@ -1932,13 +1936,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B31">
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D31">
         <v>90</v>
@@ -1952,13 +1956,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B32">
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D32">
         <v>60</v>
@@ -1972,13 +1976,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B33">
         <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D33">
         <v>45</v>
@@ -1992,13 +1996,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B34">
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D34">
         <v>90</v>
@@ -2012,13 +2016,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B35">
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D35">
         <v>45</v>
@@ -2032,13 +2036,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36">
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D36">
         <v>45</v>
@@ -2052,13 +2056,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37">
         <v>271</v>
       </c>
       <c r="C37" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D37">
         <v>45</v>
@@ -2072,13 +2076,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B38">
         <v>172</v>
       </c>
       <c r="C38" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D38">
         <v>90</v>
@@ -2092,13 +2096,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39">
         <v>89</v>
       </c>
       <c r="C39" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D39">
         <v>45</v>
@@ -2112,13 +2116,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B40">
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D40">
         <v>30</v>
@@ -2132,13 +2136,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B41">
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D41">
         <v>30</v>
@@ -2152,13 +2156,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B42">
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D42">
         <v>30</v>
@@ -2172,13 +2176,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B43">
         <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D43">
         <v>30</v>
@@ -2192,13 +2196,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44">
         <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D44">
         <v>30</v>
@@ -2212,13 +2216,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B45">
         <v>38</v>
       </c>
       <c r="C45" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D45">
         <v>45</v>
@@ -2232,13 +2236,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B46">
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D46">
         <v>30</v>
@@ -2252,13 +2256,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B47">
         <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D47">
         <v>30</v>
@@ -2272,13 +2276,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B48">
         <v>459</v>
       </c>
       <c r="C48" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D48">
         <v>60</v>
@@ -2292,13 +2296,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B49">
         <v>303</v>
       </c>
       <c r="C49" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D49">
         <v>60</v>
@@ -2312,13 +2316,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B50">
         <v>439</v>
       </c>
       <c r="C50" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D50">
         <v>15</v>
@@ -2332,13 +2336,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B51">
         <v>66</v>
       </c>
       <c r="C51" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D51">
         <v>60</v>
@@ -2352,13 +2356,13 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B52">
         <v>45</v>
       </c>
       <c r="C52" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D52">
         <v>30</v>
@@ -2372,13 +2376,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B53">
         <v>100</v>
       </c>
       <c r="C53" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D53">
         <v>15</v>
@@ -2392,13 +2396,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D54">
         <v>30</v>
@@ -2412,13 +2416,13 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B55">
         <v>2096</v>
       </c>
       <c r="C55" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D55">
         <v>40</v>
@@ -2432,13 +2436,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B56">
         <v>4218.0039999999999</v>
       </c>
       <c r="C56" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D56">
         <v>20</v>
@@ -2452,13 +2456,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B57">
         <v>25</v>
       </c>
       <c r="C57" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D57">
         <v>60</v>
@@ -2472,13 +2476,13 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B58">
         <v>49.999999999999901</v>
       </c>
       <c r="C58" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D58">
         <v>30</v>
@@ -2492,13 +2496,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B59">
         <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D59">
         <v>45</v>
@@ -2512,13 +2516,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B60">
         <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D60">
         <v>60</v>
@@ -2532,13 +2536,13 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B61">
         <v>23</v>
       </c>
       <c r="C61" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D61">
         <v>45</v>
@@ -2552,13 +2556,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B62">
         <v>20</v>
       </c>
       <c r="C62" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D62">
         <v>45</v>
@@ -2572,13 +2576,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B63">
         <v>972</v>
       </c>
       <c r="C63" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D63">
         <v>30</v>
@@ -2592,13 +2596,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B64">
         <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D64">
         <v>30</v>
@@ -2612,13 +2616,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B65">
         <v>17</v>
       </c>
       <c r="C65" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D65">
         <v>15</v>
@@ -2632,13 +2636,13 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B66">
         <v>18</v>
       </c>
       <c r="C66" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D66">
         <v>30</v>
@@ -2652,13 +2656,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B67">
         <v>262</v>
       </c>
       <c r="C67" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D67">
         <v>60</v>
@@ -2672,13 +2676,13 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B68">
         <v>221</v>
       </c>
       <c r="C68" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D68">
         <v>60</v>
@@ -2692,13 +2696,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B69">
         <v>400</v>
       </c>
       <c r="C69" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D69">
         <v>30</v>
@@ -2712,13 +2716,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B70">
         <v>415</v>
       </c>
       <c r="C70" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D70">
         <v>15</v>
@@ -2732,13 +2736,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B71">
         <v>230</v>
       </c>
       <c r="C71" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D71">
         <v>60</v>
@@ -2752,13 +2756,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B72">
         <v>218</v>
       </c>
       <c r="C72" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D72">
         <v>30</v>
@@ -2772,13 +2776,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B73">
         <v>287</v>
       </c>
       <c r="C73" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D73">
         <v>60</v>
@@ -2792,13 +2796,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B74">
         <v>30</v>
       </c>
       <c r="C74" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D74">
         <v>15</v>
@@ -2812,13 +2816,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B75">
         <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D75">
         <v>15</v>
@@ -2832,13 +2836,13 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B76">
         <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D76">
         <v>15</v>
@@ -2852,13 +2856,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B77">
         <v>17</v>
       </c>
       <c r="C77" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D77">
         <v>15</v>
@@ -2872,13 +2876,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B78">
         <v>22</v>
       </c>
       <c r="C78" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D78">
         <v>15</v>
@@ -2892,13 +2896,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B79">
         <v>21</v>
       </c>
       <c r="C79" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D79">
         <v>30</v>
@@ -2912,13 +2916,13 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B80">
         <v>21</v>
       </c>
       <c r="C80" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D80">
         <v>15</v>
@@ -2932,13 +2936,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B81">
         <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D81">
         <v>15</v>
@@ -2952,13 +2956,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B82">
         <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D82">
         <v>15</v>
@@ -2972,13 +2976,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B83">
         <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D83">
         <v>15</v>
@@ -2992,13 +2996,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B84">
         <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D84">
         <v>15</v>
@@ -3012,13 +3016,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B85">
         <v>15</v>
       </c>
       <c r="C85" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D85">
         <v>30</v>
@@ -3032,13 +3036,13 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B86">
         <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D86">
         <v>30</v>
@@ -3052,13 +3056,13 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B87">
         <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D87">
         <v>30</v>
@@ -3072,13 +3076,13 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B88">
         <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D88">
         <v>60</v>
@@ -3092,13 +3096,13 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B89">
         <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D89">
         <v>30</v>
@@ -3112,13 +3116,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90">
         <v>26</v>
       </c>
       <c r="C90" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D90">
         <v>30</v>
@@ -3132,13 +3136,13 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B91">
         <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D91">
         <v>30</v>
@@ -3152,13 +3156,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B92">
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D92">
         <v>60</v>
@@ -3172,13 +3176,13 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B93">
         <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D93">
         <v>60</v>
@@ -3192,13 +3196,13 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B94">
         <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D94">
         <v>60</v>
@@ -3212,13 +3216,13 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B95">
         <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D95">
         <v>30</v>
@@ -3232,13 +3236,13 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B96">
         <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D96">
         <v>60</v>
@@ -3252,13 +3256,13 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B97">
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D97">
         <v>60</v>
@@ -3272,13 +3276,13 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B98">
         <v>32</v>
       </c>
       <c r="C98" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D98">
         <v>30</v>
@@ -3292,13 +3296,13 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B99">
         <v>30</v>
       </c>
       <c r="C99" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D99">
         <v>60</v>
@@ -3312,13 +3316,13 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B100">
         <v>22</v>
       </c>
       <c r="C100" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D100">
         <v>120</v>
@@ -3332,13 +3336,13 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B101">
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D101">
         <v>90</v>
@@ -3352,13 +3356,13 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B102">
         <v>31</v>
       </c>
       <c r="C102" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D102">
         <v>15</v>
@@ -3372,13 +3376,13 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B103">
         <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D103">
         <v>30</v>
@@ -3392,13 +3396,13 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B104">
         <v>38</v>
       </c>
       <c r="C104" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D104">
         <v>30</v>
@@ -3412,13 +3416,13 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B105">
         <v>3.4600000000000399</v>
       </c>
       <c r="C105" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D105">
         <v>60</v>
@@ -3432,13 +3436,13 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B106">
         <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D106">
         <v>60</v>
@@ -3452,13 +3456,13 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B107">
         <v>21840</v>
       </c>
       <c r="C107" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D107">
         <v>60</v>
@@ -3472,13 +3476,13 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B108">
         <v>4190.5</v>
       </c>
       <c r="C108" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D108">
         <v>120</v>
@@ -3492,13 +3496,13 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B109">
         <v>790.5</v>
       </c>
       <c r="C109" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D109">
         <v>60</v>
@@ -3512,13 +3516,13 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B110">
         <v>1890.5</v>
       </c>
       <c r="C110" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D110">
         <v>120</v>
@@ -3532,13 +3536,13 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B111">
         <v>1256.5</v>
       </c>
       <c r="C111" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D111">
         <v>60</v>
@@ -3552,13 +3556,13 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B112">
         <v>2167.5</v>
       </c>
       <c r="C112" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D112">
         <v>60</v>
@@ -3572,13 +3576,13 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B113">
         <v>2714.5</v>
       </c>
       <c r="C113" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D113">
         <v>60</v>
@@ -3592,13 +3596,13 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B114">
         <v>21334</v>
       </c>
       <c r="C114" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D114">
         <v>60</v>
@@ -3612,13 +3616,13 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B115">
         <v>4317</v>
       </c>
       <c r="C115" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D115">
         <v>60</v>
@@ -3632,13 +3636,13 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B116">
         <v>913.5</v>
       </c>
       <c r="C116" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D116">
         <v>120</v>
@@ -3652,13 +3656,13 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B117">
         <v>3371</v>
       </c>
       <c r="C117" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D117">
         <v>120</v>
@@ -3672,13 +3676,13 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B118">
         <v>2520.5</v>
       </c>
       <c r="C118" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D118">
         <v>60</v>
@@ -3692,13 +3696,13 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B119">
         <v>7873</v>
       </c>
       <c r="C119" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D119">
         <v>60</v>
@@ -3712,13 +3716,13 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B120">
         <v>2727</v>
       </c>
       <c r="C120" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D120">
         <v>60</v>
@@ -3732,13 +3736,13 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B121">
         <v>1252</v>
       </c>
       <c r="C121" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D121">
         <v>120</v>
@@ -3752,13 +3756,13 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B122">
         <v>1256</v>
       </c>
       <c r="C122" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D122">
         <v>60</v>
@@ -3772,13 +3776,13 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B123">
         <v>1711</v>
       </c>
       <c r="C123" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D123">
         <v>120</v>
@@ -3792,13 +3796,13 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B124">
         <v>115</v>
       </c>
       <c r="C124" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D124">
         <v>60</v>
@@ -3812,13 +3816,13 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B125">
         <v>131</v>
       </c>
       <c r="C125" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D125">
         <v>120</v>
@@ -3832,13 +3836,13 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B126">
         <v>219</v>
       </c>
       <c r="C126" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D126">
         <v>120</v>
@@ -3852,13 +3856,13 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B127">
         <v>396</v>
       </c>
       <c r="C127" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D127">
         <v>120</v>
@@ -3872,13 +3876,13 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B128">
         <v>327</v>
       </c>
       <c r="C128" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D128">
         <v>120</v>
@@ -3892,13 +3896,13 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B129">
         <v>338</v>
       </c>
       <c r="C129" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D129">
         <v>60</v>
@@ -3912,13 +3916,13 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B130">
         <v>172</v>
       </c>
       <c r="C130" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D130">
         <v>120</v>
@@ -3932,13 +3936,13 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B131">
         <v>138</v>
       </c>
       <c r="C131" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D131">
         <v>60</v>
@@ -3952,13 +3956,13 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B132">
         <v>68</v>
       </c>
       <c r="C132" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D132">
         <v>60</v>
@@ -3972,13 +3976,13 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B133">
         <v>372</v>
       </c>
       <c r="C133" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D133">
         <v>120</v>
@@ -3992,13 +3996,13 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B134">
         <v>354</v>
       </c>
       <c r="C134" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D134">
         <v>120</v>
@@ -4012,13 +4016,13 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B135">
         <v>343</v>
       </c>
       <c r="C135" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D135">
         <v>60</v>
@@ -4032,13 +4036,13 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B136">
         <v>196</v>
       </c>
       <c r="C136" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D136">
         <v>120</v>
@@ -4052,13 +4056,13 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B137">
         <v>372</v>
       </c>
       <c r="C137" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D137">
         <v>120</v>
@@ -4072,13 +4076,13 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B138">
         <v>340</v>
       </c>
       <c r="C138" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D138">
         <v>60</v>
@@ -4092,13 +4096,13 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B139">
         <v>641</v>
       </c>
       <c r="C139" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D139">
         <v>60</v>
@@ -4112,13 +4116,13 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B140">
         <v>70.999999999999901</v>
       </c>
       <c r="C140" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D140">
         <v>60</v>
@@ -4132,13 +4136,13 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B141">
         <v>118</v>
       </c>
       <c r="C141" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D141">
         <v>120</v>
@@ -4152,13 +4156,13 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B142">
         <v>88</v>
       </c>
       <c r="C142" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D142">
         <v>60</v>
@@ -4172,13 +4176,13 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B143">
         <v>107</v>
       </c>
       <c r="C143" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D143">
         <v>120</v>
@@ -4192,13 +4196,13 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B144">
         <v>150</v>
       </c>
       <c r="C144" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D144">
         <v>60</v>
@@ -4212,13 +4216,13 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B145">
         <v>160</v>
       </c>
       <c r="C145" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D145">
         <v>60</v>
@@ -4232,13 +4236,13 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B146">
         <v>48</v>
       </c>
       <c r="C146" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D146">
         <v>120</v>
@@ -4252,13 +4256,13 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B147">
         <v>107</v>
       </c>
       <c r="C147" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D147">
         <v>60</v>
@@ -4272,13 +4276,13 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B148">
         <v>142</v>
       </c>
       <c r="C148" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D148">
         <v>60</v>
@@ -4292,13 +4296,13 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B149">
         <v>109</v>
       </c>
       <c r="C149" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D149">
         <v>120</v>
@@ -4312,13 +4316,13 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B150">
         <v>49</v>
       </c>
       <c r="C150" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D150">
         <v>60</v>
@@ -4332,13 +4336,13 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B151">
         <v>61</v>
       </c>
       <c r="C151" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D151">
         <v>120</v>
@@ -4352,13 +4356,13 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B152">
         <v>107</v>
       </c>
       <c r="C152" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D152">
         <v>60</v>
@@ -4372,13 +4376,13 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B153">
         <v>10253</v>
       </c>
       <c r="C153" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D153">
         <v>120</v>
@@ -4392,13 +4396,13 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B154">
         <v>2510</v>
       </c>
       <c r="C154" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D154">
         <v>120</v>
@@ -4412,13 +4416,13 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B155">
         <v>509</v>
       </c>
       <c r="C155" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D155">
         <v>60</v>
@@ -4432,13 +4436,13 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B156">
         <v>734</v>
       </c>
       <c r="C156" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D156">
         <v>120</v>
@@ -4452,13 +4456,13 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B157">
         <v>3420</v>
       </c>
       <c r="C157" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D157">
         <v>60</v>
@@ -4472,13 +4476,13 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B158">
         <v>6083.67</v>
       </c>
       <c r="C158" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D158">
         <v>30</v>
@@ -4492,13 +4496,13 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B159">
         <v>227</v>
       </c>
       <c r="C159" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D159">
         <v>60</v>
@@ -4512,13 +4516,13 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B160">
         <v>7565</v>
       </c>
       <c r="C160" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D160">
         <v>30</v>
@@ -4532,13 +4536,13 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B161">
         <v>32086</v>
       </c>
       <c r="C161" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D161">
         <v>60</v>
@@ -4552,13 +4556,13 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B162">
         <v>51818</v>
       </c>
       <c r="C162" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D162">
         <v>60</v>
@@ -4572,13 +4576,13 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B163">
         <v>30</v>
       </c>
       <c r="C163" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D163">
         <v>60</v>
@@ -4592,13 +4596,13 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B164">
         <v>7800</v>
       </c>
       <c r="C164" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D164">
         <v>90</v>
@@ -4612,13 +4616,13 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B165">
         <v>503</v>
       </c>
       <c r="C165" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D165">
         <v>60</v>
@@ -4632,13 +4636,13 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B166">
         <v>78462</v>
       </c>
       <c r="C166" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D166">
         <v>90</v>
@@ -4652,13 +4656,13 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B167">
         <v>87174</v>
       </c>
       <c r="C167" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D167">
         <v>45</v>
@@ -4672,13 +4676,13 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B168">
         <v>124908</v>
       </c>
       <c r="C168" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D168">
         <v>30</v>
@@ -4692,13 +4696,13 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B169">
         <v>120860</v>
       </c>
       <c r="C169" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D169">
         <v>60</v>
@@ -4712,13 +4716,13 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B170">
         <v>11006</v>
       </c>
       <c r="C170" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D170">
         <v>30</v>
@@ -4732,13 +4736,13 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B171">
         <v>342553</v>
       </c>
       <c r="C171" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D171">
         <v>90</v>
@@ -4752,13 +4756,13 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B172">
         <v>66031</v>
       </c>
       <c r="C172" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D172">
         <v>45</v>
@@ -4772,13 +4776,13 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B173">
         <v>79661</v>
       </c>
       <c r="C173" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D173">
         <v>45</v>
@@ -4792,13 +4796,13 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B174">
         <v>96647</v>
       </c>
       <c r="C174" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D174">
         <v>45</v>
@@ -4812,13 +4816,13 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B175">
         <v>73915</v>
       </c>
       <c r="C175" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D175">
         <v>60</v>
@@ -4832,13 +4836,13 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B176">
         <v>107097</v>
       </c>
       <c r="C176" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D176">
         <v>30</v>
@@ -4852,13 +4856,13 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B177">
         <v>1396</v>
       </c>
       <c r="C177" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D177">
         <v>60</v>
@@ -4872,13 +4876,13 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B178">
         <v>397</v>
       </c>
       <c r="C178" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D178">
         <v>30</v>
@@ -4892,13 +4896,13 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B179">
         <v>22</v>
       </c>
       <c r="C179" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D179">
         <v>30</v>
@@ -4912,13 +4916,13 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B180">
         <v>32</v>
       </c>
       <c r="C180" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D180">
         <v>60</v>
@@ -4932,13 +4936,13 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B181">
         <v>23</v>
       </c>
       <c r="C181" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D181">
         <v>30</v>
@@ -4952,13 +4956,13 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B182">
         <v>22117</v>
       </c>
       <c r="C182" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D182">
         <v>90</v>
@@ -4972,13 +4976,13 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B183">
         <v>46</v>
       </c>
       <c r="C183" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D183">
         <v>60</v>
@@ -4992,13 +4996,13 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B184">
         <v>19</v>
       </c>
       <c r="C184" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D184">
         <v>30</v>
@@ -5012,13 +5016,13 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B185">
         <v>8140</v>
       </c>
       <c r="C185" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D185">
         <v>30</v>
@@ -5032,13 +5036,13 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B186">
         <v>3996</v>
       </c>
       <c r="C186" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D186">
         <v>30</v>
@@ -5052,13 +5056,13 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B187">
         <v>3996</v>
       </c>
       <c r="C187" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D187">
         <v>30</v>
@@ -5072,13 +5076,13 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B188">
         <v>187</v>
       </c>
       <c r="C188" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D188">
         <v>30</v>
@@ -5092,13 +5096,13 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B189">
         <v>86</v>
       </c>
       <c r="C189" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D189">
         <v>30</v>
@@ -5112,13 +5116,13 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B190">
         <v>275</v>
       </c>
       <c r="C190" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D190">
         <v>30</v>
@@ -5132,13 +5136,13 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B191">
         <v>1340</v>
       </c>
       <c r="C191" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D191">
         <v>60</v>
@@ -5152,13 +5156,13 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B192">
         <v>1735</v>
       </c>
       <c r="C192" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D192">
         <v>30</v>
@@ -5172,13 +5176,13 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B193">
         <v>444</v>
       </c>
       <c r="C193" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D193">
         <v>60</v>
@@ -5192,13 +5196,13 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B194">
         <v>417</v>
       </c>
       <c r="C194" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D194">
         <v>60</v>
@@ -5212,13 +5216,13 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B195">
         <v>843</v>
       </c>
       <c r="C195" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D195">
         <v>30</v>
@@ -5232,13 +5236,13 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B196">
         <v>43</v>
       </c>
       <c r="C196" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D196">
         <v>60</v>
@@ -5252,13 +5256,13 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B197">
         <v>1627</v>
       </c>
       <c r="C197" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D197">
         <v>60</v>
@@ -5272,13 +5276,13 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B198">
         <v>2670</v>
       </c>
       <c r="C198" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D198">
         <v>30</v>
@@ -5292,13 +5296,13 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B199">
         <v>2588</v>
       </c>
       <c r="C199" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D199">
         <v>60</v>
@@ -5312,13 +5316,13 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B200">
         <v>277</v>
       </c>
       <c r="C200" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D200">
         <v>120</v>
@@ -5332,13 +5336,13 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B201">
         <v>711</v>
       </c>
       <c r="C201" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D201">
         <v>120</v>
@@ -5352,13 +5356,13 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B202">
         <v>173</v>
       </c>
       <c r="C202" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D202">
         <v>60</v>
@@ -5372,13 +5376,13 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B203">
         <v>292</v>
       </c>
       <c r="C203" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D203">
         <v>60</v>
@@ -5392,13 +5396,13 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B204">
         <v>96</v>
       </c>
       <c r="C204" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D204">
         <v>120</v>
@@ -5412,13 +5416,13 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B205">
         <v>4840</v>
       </c>
       <c r="C205" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D205">
         <v>60</v>
@@ -5432,13 +5436,13 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B206">
         <v>4097</v>
       </c>
       <c r="C206" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D206">
         <v>45</v>
@@ -5452,13 +5456,13 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B207">
         <v>9013.9999999999909</v>
       </c>
       <c r="C207" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D207">
         <v>90</v>
@@ -5472,13 +5476,13 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B208">
         <v>3923</v>
       </c>
       <c r="C208" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D208">
         <v>90</v>
@@ -5492,13 +5496,13 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B209">
         <v>880</v>
       </c>
       <c r="C209" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D209">
         <v>90</v>
@@ -5512,13 +5516,13 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B210">
         <v>933</v>
       </c>
       <c r="C210" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D210">
         <v>45</v>
@@ -5532,13 +5536,13 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B211">
         <v>8782</v>
       </c>
       <c r="C211" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D211">
         <v>90</v>
@@ -5552,13 +5556,13 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B212">
         <v>7502</v>
       </c>
       <c r="C212" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D212">
         <v>90</v>
@@ -5572,13 +5576,13 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B213">
         <v>3706</v>
       </c>
       <c r="C213" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D213">
         <v>45</v>
@@ -5592,13 +5596,13 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B214">
         <v>4220</v>
       </c>
       <c r="C214" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D214">
         <v>45</v>
@@ -5612,13 +5616,13 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B215">
         <v>4811</v>
       </c>
       <c r="C215" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D215">
         <v>45</v>
@@ -5632,13 +5636,13 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B216">
         <v>4499</v>
       </c>
       <c r="C216" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D216">
         <v>90</v>
@@ -5652,13 +5656,13 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B217">
         <v>11008</v>
       </c>
       <c r="C217" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D217">
         <v>90</v>
@@ -5672,13 +5676,13 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B218">
         <v>3638</v>
       </c>
       <c r="C218" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D218">
         <v>90</v>
@@ -5692,13 +5696,13 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B219">
         <v>265</v>
       </c>
       <c r="C219" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D219">
         <v>30</v>
@@ -5712,13 +5716,13 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B220">
         <v>577</v>
       </c>
       <c r="C220" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D220">
         <v>30</v>
@@ -5732,13 +5736,13 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B221">
         <v>690</v>
       </c>
       <c r="C221" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D221">
         <v>15</v>
@@ -5752,13 +5756,13 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B222">
         <v>470</v>
       </c>
       <c r="C222" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D222">
         <v>30</v>
@@ -5772,13 +5776,13 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B223">
         <v>495</v>
       </c>
       <c r="C223" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D223">
         <v>15</v>
@@ -5792,13 +5796,13 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B224">
         <v>131</v>
       </c>
       <c r="C224" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D224">
         <v>30</v>
@@ -5812,13 +5816,13 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B225">
         <v>233</v>
       </c>
       <c r="C225" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D225">
         <v>15</v>
@@ -5832,13 +5836,13 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B226">
         <v>759</v>
       </c>
       <c r="C226" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D226">
         <v>15</v>
@@ -5852,13 +5856,13 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B227">
         <v>304.39999999999998</v>
       </c>
       <c r="C227" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D227">
         <v>15</v>
@@ -5872,13 +5876,13 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B228">
         <v>868</v>
       </c>
       <c r="C228" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D228">
         <v>30</v>
@@ -5892,13 +5896,13 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B229">
         <v>35</v>
       </c>
       <c r="C229" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D229">
         <v>30</v>
@@ -5912,13 +5916,13 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B230">
         <v>405</v>
       </c>
       <c r="C230" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D230">
         <v>30</v>
@@ -5932,13 +5936,13 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B231">
         <v>28</v>
       </c>
       <c r="C231" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D231">
         <v>60</v>
@@ -5952,13 +5956,13 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B232">
         <v>442</v>
       </c>
       <c r="C232" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D232">
         <v>60</v>
@@ -5972,13 +5976,13 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B233">
         <v>200</v>
       </c>
       <c r="C233" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D233">
         <v>30</v>
@@ -5992,13 +5996,13 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B234">
         <v>15</v>
       </c>
       <c r="C234" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D234">
         <v>30</v>
@@ -6012,13 +6016,13 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B235">
         <v>29</v>
       </c>
       <c r="C235" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D235">
         <v>30</v>
@@ -6032,13 +6036,13 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B236">
         <v>12</v>
       </c>
       <c r="C236" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D236">
         <v>30</v>
@@ -6052,13 +6056,13 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B237">
         <v>4</v>
       </c>
       <c r="C237" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D237">
         <v>30</v>
@@ -6072,13 +6076,13 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B238">
         <v>4</v>
       </c>
       <c r="C238" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D238">
         <v>60</v>
@@ -6092,13 +6096,13 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B239">
         <v>5</v>
       </c>
       <c r="C239" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D239">
         <v>30</v>
@@ -6112,13 +6116,13 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B240">
         <v>6</v>
       </c>
       <c r="C240" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D240">
         <v>60</v>
@@ -6132,13 +6136,13 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B241">
         <v>15</v>
       </c>
       <c r="C241" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D241">
         <v>30</v>
@@ -6152,13 +6156,13 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B242">
         <v>27</v>
       </c>
       <c r="C242" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D242">
         <v>30</v>
@@ -6172,13 +6176,13 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B243">
         <v>10</v>
       </c>
       <c r="C243" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D243">
         <v>15</v>
@@ -6192,13 +6196,13 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B244">
         <v>28</v>
       </c>
       <c r="C244" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D244">
         <v>15</v>
@@ -6212,13 +6216,13 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B245">
         <v>273</v>
       </c>
       <c r="C245" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D245">
         <v>15</v>
@@ -6232,13 +6236,13 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B246">
         <v>233</v>
       </c>
       <c r="C246" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D246">
         <v>30</v>
@@ -6252,13 +6256,13 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B247">
         <v>438</v>
       </c>
       <c r="C247" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D247">
         <v>30</v>
@@ -6272,13 +6276,13 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B248">
         <v>13347</v>
       </c>
       <c r="C248" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D248">
         <v>15</v>
@@ -6292,13 +6296,13 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B249">
         <v>44</v>
       </c>
       <c r="C249" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D249">
         <v>30</v>
@@ -6312,13 +6316,13 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B250">
         <v>88</v>
       </c>
       <c r="C250" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D250">
         <v>15</v>
@@ -6332,13 +6336,13 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B251">
         <v>119</v>
       </c>
       <c r="C251" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D251">
         <v>30</v>
@@ -6352,13 +6356,13 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B252">
         <v>144</v>
       </c>
       <c r="C252" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D252">
         <v>30</v>
@@ -6372,13 +6376,13 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B253">
         <v>190</v>
       </c>
       <c r="C253" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D253">
         <v>60</v>
@@ -6392,13 +6396,13 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B254">
         <v>34</v>
       </c>
       <c r="C254" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D254">
         <v>15</v>
@@ -6412,13 +6416,13 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B255">
         <v>241</v>
       </c>
       <c r="C255" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D255">
         <v>15</v>
@@ -6432,13 +6436,13 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B256">
         <v>646</v>
       </c>
       <c r="C256" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D256">
         <v>30</v>
@@ -6452,13 +6456,13 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B257">
         <v>390</v>
       </c>
       <c r="C257" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D257">
         <v>30</v>
@@ -6472,13 +6476,13 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B258">
         <v>317</v>
       </c>
       <c r="C258" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D258">
         <v>30</v>
@@ -6492,13 +6496,13 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B259">
         <v>11771.05</v>
       </c>
       <c r="C259" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D259">
         <v>30</v>
@@ -6512,13 +6516,13 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B260">
         <v>4</v>
       </c>
       <c r="C260" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D260">
         <v>30</v>
@@ -6532,13 +6536,13 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B261">
         <v>250</v>
       </c>
       <c r="C261" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D261">
         <v>30</v>
@@ -6552,13 +6556,13 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B262">
         <v>687</v>
       </c>
       <c r="C262" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D262">
         <v>15</v>
@@ -6572,13 +6576,13 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B263">
         <v>14</v>
       </c>
       <c r="C263" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D263">
         <v>60</v>
@@ -6592,13 +6596,13 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B264">
         <v>800</v>
       </c>
       <c r="C264" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D264">
         <v>30</v>
@@ -6612,13 +6616,13 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B265">
         <v>86</v>
       </c>
       <c r="C265" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D265">
         <v>60</v>
@@ -6632,13 +6636,13 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B266">
         <v>418</v>
       </c>
       <c r="C266" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D266">
         <v>60</v>
@@ -6652,13 +6656,13 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B267">
         <v>930</v>
       </c>
       <c r="C267" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D267">
         <v>30</v>
@@ -6672,13 +6676,13 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B268">
         <v>285</v>
       </c>
       <c r="C268" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D268">
         <v>30</v>
@@ -6692,13 +6696,13 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B269">
         <v>0</v>
       </c>
       <c r="C269" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D269">
         <v>60</v>
@@ -6712,13 +6716,13 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B270">
         <v>0</v>
       </c>
       <c r="C270" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D270">
         <v>30</v>
@@ -6732,13 +6736,13 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B271">
         <v>0</v>
       </c>
       <c r="C271" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D271">
         <v>60</v>
@@ -6752,13 +6756,13 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B272">
         <v>0</v>
       </c>
       <c r="C272" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D272">
         <v>30</v>
@@ -6772,13 +6776,13 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B273">
         <v>0</v>
       </c>
       <c r="C273" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D273">
         <v>60</v>
@@ -6792,13 +6796,13 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B274">
         <v>0</v>
       </c>
       <c r="C274" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D274">
         <v>30</v>
@@ -6812,13 +6816,13 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B275">
         <v>0</v>
       </c>
       <c r="C275" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D275">
         <v>60</v>
@@ -6832,13 +6836,13 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B276">
         <v>6802</v>
       </c>
       <c r="C276" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D276">
         <v>60</v>
@@ -6852,13 +6856,13 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B277">
         <v>0</v>
       </c>
       <c r="C277" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D277">
         <v>30</v>
@@ -6872,13 +6876,13 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B278">
         <v>240</v>
       </c>
       <c r="C278" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D278">
         <v>40</v>
@@ -6892,13 +6896,13 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B279">
         <v>48</v>
       </c>
       <c r="C279" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D279">
         <v>30</v>
@@ -6912,13 +6916,13 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B280">
         <v>310</v>
       </c>
       <c r="C280" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D280">
         <v>30</v>
@@ -6932,13 +6936,13 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B281">
         <v>1900</v>
       </c>
       <c r="C281" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D281">
         <v>15</v>
@@ -6952,13 +6956,13 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B282">
         <v>14</v>
       </c>
       <c r="C282" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D282">
         <v>40</v>
@@ -6972,13 +6976,13 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B283">
         <v>86</v>
       </c>
       <c r="C283" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D283">
         <v>15</v>
@@ -6992,13 +6996,13 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B284">
         <v>4</v>
       </c>
       <c r="C284" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D284">
         <v>15</v>
@@ -7012,13 +7016,13 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B285">
         <v>159.99999999999801</v>
       </c>
       <c r="C285" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D285">
         <v>30</v>
@@ -7032,13 +7036,13 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B286">
         <v>73</v>
       </c>
       <c r="C286" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D286">
         <v>15</v>
@@ -7052,13 +7056,13 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B287">
         <v>72</v>
       </c>
       <c r="C287" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D287">
         <v>15</v>
@@ -7072,13 +7076,13 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B288">
         <v>1565</v>
       </c>
       <c r="C288" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D288">
         <v>30</v>
@@ -7092,13 +7096,13 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B289">
         <v>177</v>
       </c>
       <c r="C289" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D289">
         <v>15</v>
@@ -7112,13 +7116,13 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B290">
         <v>820</v>
       </c>
       <c r="C290" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D290">
         <v>30</v>
@@ -7132,13 +7136,13 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B291">
         <v>2680</v>
       </c>
       <c r="C291" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D291">
         <v>30</v>
@@ -7152,13 +7156,13 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B292">
         <v>427</v>
       </c>
       <c r="C292" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D292">
         <v>15</v>
@@ -7172,13 +7176,13 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B293">
         <v>376</v>
       </c>
       <c r="C293" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D293">
         <v>40</v>
@@ -7192,13 +7196,13 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B294">
         <v>70141</v>
       </c>
       <c r="C294" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D294">
         <v>20</v>
@@ -7212,13 +7216,13 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B295">
         <v>82476</v>
       </c>
       <c r="C295" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D295">
         <v>40</v>
@@ -7232,13 +7236,13 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B296">
         <v>10034</v>
       </c>
       <c r="C296" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D296">
         <v>20</v>
@@ -7252,13 +7256,13 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B297">
         <v>262</v>
       </c>
       <c r="C297" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D297">
         <v>30</v>
@@ -7272,13 +7276,13 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B298">
         <v>416</v>
       </c>
       <c r="C298" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D298">
         <v>15</v>
@@ -7292,13 +7296,13 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B299">
         <v>162</v>
       </c>
       <c r="C299" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D299">
         <v>60</v>
@@ -7312,13 +7316,13 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B300">
         <v>116</v>
       </c>
       <c r="C300" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D300">
         <v>120</v>
@@ -7332,13 +7336,13 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B301">
         <v>145</v>
       </c>
       <c r="C301" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D301">
         <v>120</v>
@@ -7352,13 +7356,13 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B302">
         <v>275</v>
       </c>
       <c r="C302" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D302">
         <v>120</v>
@@ -7372,13 +7376,13 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B303">
         <v>331</v>
       </c>
       <c r="C303" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D303">
         <v>120</v>
@@ -7392,13 +7396,13 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B304">
         <v>36357</v>
       </c>
       <c r="C304" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D304">
         <v>15</v>
